--- a/examples/wangetal2018/out/ResultFiles/DR_1.0_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_1.0_nfc.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -303,7 +309,7 @@
     <t>X56</t>
   </si>
   <si>
-    <t>S XS</t>
+    <t>S 20</t>
   </si>
   <si>
     <t>Breakdown of compressor by station</t>
@@ -459,9 +465,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>S 20</t>
-  </si>
-  <si>
     <t>Segment</t>
   </si>
   <si>
@@ -486,7 +489,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1128,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1150,10 +1153,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.607246570089902</v>
+        <v>0.6195339283898808</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1161,10 +1164,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.282715788648927</v>
+        <v>0.2870530003305398</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1175,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1183,10 +1186,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03040126046177929</v>
+        <v>0.03086765359334337</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1205,10 +1208,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.00628222108742055</v>
+        <v>0.006378598169213706</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1216,10 +1219,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01802952316585077</v>
+        <v>0.01830611846624958</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1230,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1241,7 +1244,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1249,10 +1252,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.1542768486028931</v>
+        <v>0.1542768354939392</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1285,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1293,10 +1296,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.008746384134912867</v>
+        <v>0.0114875142110534</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1304,10 +1307,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.08789366327958414</v>
+        <v>0.0922201152606137</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1315,10 +1318,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001882868986550524</v>
+        <v>0.001926081142944471</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1329,7 +1332,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1340,7 +1343,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1351,7 +1354,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1362,7 +1365,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1373,7 +1376,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1384,7 +1387,7 @@
         <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1395,7 +1398,7 @@
         <v>248.5484</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1414,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1422,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2482.420413379059</v>
+        <v>2482.42020244699</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1433,10 +1436,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>103.4341838907941</v>
+        <v>103.4341751019579</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1458,7 +1461,7 @@
         <v>471930519.110092</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1469,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1480,7 +1483,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1491,7 +1494,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1502,162 +1505,147 @@
         <v>30096240</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="G46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
         <v>850</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>400</v>
       </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46">
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47">
         <v>308749433.3595871</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>113515972.7858659</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>49665112.96463897</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>93</v>
+      <c r="H47">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
+      <c r="G52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52">
-        <v>3.631544547790506</v>
-      </c>
-      <c r="C52">
-        <v>12.5</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G52">
-        <v>34.70951158099422</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53">
-        <v>4.30160121632179</v>
+        <v>3.631543639993619</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1672,7 +1660,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>41.11376723316822</v>
+        <v>34.70950290446935</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1680,10 +1668,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54">
-        <v>2.88884018308998</v>
+        <v>4.301601203967352</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1698,9 +1686,35 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>27.61090507663171</v>
+        <v>41.11376711508718</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55">
+        <v>2.888840183693641</v>
+      </c>
+      <c r="C55">
+        <v>12.5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G55">
+        <v>27.61090508240137</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
@@ -1719,58 +1733,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1778,31 +1792,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2">
-        <v>45.64482557651228</v>
+        <v>45.64481970666205</v>
       </c>
       <c r="G2">
         <v>850</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I2">
         <v>12.7</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>8.396183393723186</v>
@@ -1817,16 +1831,16 @@
         <v>8396183.393723186</v>
       </c>
       <c r="O2">
-        <v>8164916.12423617</v>
+        <v>8164916.175736562</v>
       </c>
       <c r="P2">
-        <v>12.52640777971185</v>
+        <v>12.52641628974997</v>
       </c>
       <c r="Q2">
-        <v>0.00946210690737914</v>
+        <v>0.009462113333553224</v>
       </c>
       <c r="R2">
-        <v>47.47093478075432</v>
+        <v>47.47093464060202</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1834,31 +1848,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3">
-        <v>45.64480116721512</v>
+        <v>45.64479234176426</v>
       </c>
       <c r="G3">
         <v>850</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>12.7</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>8.396183393723186</v>
@@ -1870,19 +1884,19 @@
         <v>18.64113</v>
       </c>
       <c r="N3">
-        <v>8164916.12423617</v>
+        <v>8164916.175736562</v>
       </c>
       <c r="O3">
-        <v>7987359.711379359</v>
+        <v>7987359.804575929</v>
       </c>
       <c r="P3">
-        <v>12.78699644169815</v>
+        <v>12.78699895079316</v>
       </c>
       <c r="Q3">
-        <v>0.009666291529541259</v>
+        <v>0.009666293422411442</v>
       </c>
       <c r="R3">
-        <v>47.96221470918488</v>
+        <v>47.96221444700051</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1890,31 +1904,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4">
-        <v>45.57290606609935</v>
+        <v>45.57290538313418</v>
       </c>
       <c r="G4">
         <v>850</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>12.7</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>8.396183393723186</v>
@@ -1929,16 +1943,16 @@
         <v>8396183.393723186</v>
       </c>
       <c r="O4">
-        <v>8215124.530330291</v>
+        <v>8215124.531228948</v>
       </c>
       <c r="P4">
-        <v>12.43463177598234</v>
+        <v>12.43463099152882</v>
       </c>
       <c r="Q4">
-        <v>0.009390774680079508</v>
+        <v>0.009390774087615451</v>
       </c>
       <c r="R4">
-        <v>47.33492980242193</v>
+        <v>47.33492979999887</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1946,31 +1960,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5">
-        <v>37.46024565267082</v>
+        <v>37.46024500948327</v>
       </c>
       <c r="G5">
         <v>850</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I5">
         <v>12.7</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>8.396183393723186</v>
@@ -1982,19 +1996,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N5">
-        <v>8215124.530330291</v>
+        <v>8215124.531228948</v>
       </c>
       <c r="O5">
-        <v>8019716.265833074</v>
+        <v>8019716.267621561</v>
       </c>
       <c r="P5">
-        <v>10.45409959014361</v>
+        <v>10.45409874791624</v>
       </c>
       <c r="Q5">
-        <v>0.007901646901429719</v>
+        <v>0.007901646264778303</v>
       </c>
       <c r="R5">
-        <v>47.87146529838751</v>
+        <v>47.87146529338666</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2002,31 +2016,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6">
-        <v>37.46024601655851</v>
+        <v>37.46024597739064</v>
       </c>
       <c r="G6">
         <v>850</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>12.7</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>8.396183393723186</v>
@@ -2038,19 +2052,19 @@
         <v>31.06855</v>
       </c>
       <c r="N6">
-        <v>8019716.265833074</v>
+        <v>8019716.267621561</v>
       </c>
       <c r="O6">
-        <v>7813480.557047122</v>
+        <v>7813480.558710656</v>
       </c>
       <c r="P6">
-        <v>10.71253286212632</v>
+        <v>10.71253269055464</v>
       </c>
       <c r="Q6">
-        <v>0.008104189400483613</v>
+        <v>0.008104189270628621</v>
       </c>
       <c r="R6">
-        <v>48.45956216835332</v>
+        <v>48.45956216351536</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2058,31 +2072,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7">
-        <v>37.37529605165911</v>
+        <v>37.37529605579934</v>
       </c>
       <c r="G7">
         <v>850</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I7">
         <v>12.7</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>8.396183393723186</v>
@@ -2097,16 +2111,16 @@
         <v>8396183.393723186</v>
       </c>
       <c r="O7">
-        <v>8199693.818564756</v>
+        <v>8199693.818553027</v>
       </c>
       <c r="P7">
-        <v>10.21587163247064</v>
+        <v>10.21587163457643</v>
       </c>
       <c r="Q7">
-        <v>0.007715648238728922</v>
+        <v>0.007715648240319732</v>
       </c>
       <c r="R7">
-        <v>47.37659472465015</v>
+        <v>47.37659472468188</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2114,31 +2128,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8">
-        <v>37.37529604937883</v>
+        <v>37.3752961266936</v>
       </c>
       <c r="G8">
         <v>850</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I8">
         <v>12.7</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>8.396183393723186</v>
@@ -2150,19 +2164,19 @@
         <v>31.06855</v>
       </c>
       <c r="N8">
-        <v>8199693.818564756</v>
+        <v>8199693.818553027</v>
       </c>
       <c r="O8">
-        <v>7998694.769931788</v>
+        <v>7998694.769851127</v>
       </c>
       <c r="P8">
-        <v>10.45608575051092</v>
+        <v>10.45608587989121</v>
       </c>
       <c r="Q8">
-        <v>0.007903861564095838</v>
+        <v>0.007903861661898454</v>
       </c>
       <c r="R8">
-        <v>47.9303605757165</v>
+        <v>47.93036057594293</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2170,16 +2184,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F9">
         <v>37.31823697303841</v>
@@ -2188,13 +2202,13 @@
         <v>850</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I9">
         <v>12.7</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>8.396183393723186</v>
@@ -2226,16 +2240,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <v>37.31823697116083</v>
@@ -2244,13 +2258,13 @@
         <v>850</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I10">
         <v>12.7</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <v>8.396183393723186</v>
@@ -2292,72 +2306,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2366,16 +2380,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.051183832595068</v>
+        <v>1.051183820329847</v>
       </c>
       <c r="I2">
-        <v>34.70951158099422</v>
+        <v>34.70950290446935</v>
       </c>
       <c r="J2">
-        <v>3.631544547790506</v>
+        <v>3.631543639993619</v>
       </c>
       <c r="K2">
-        <v>4869.973869478024</v>
+        <v>4869.972652104243</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2401,16 +2415,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2419,16 +2433,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.074576602888007</v>
+        <v>1.074576602659223</v>
       </c>
       <c r="I3">
-        <v>41.11376723316822</v>
+        <v>41.11376711508718</v>
       </c>
       <c r="J3">
-        <v>4.30160121632179</v>
+        <v>4.301601203967352</v>
       </c>
       <c r="K3">
-        <v>5768.533263111847</v>
+        <v>5768.533246544299</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2454,16 +2468,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2472,16 +2486,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.04969418576711</v>
+        <v>1.049694185777695</v>
       </c>
       <c r="I4">
-        <v>27.61090507663171</v>
+        <v>27.61090508240137</v>
       </c>
       <c r="J4">
-        <v>2.88884018308998</v>
+        <v>2.888840183693641</v>
       </c>
       <c r="K4">
-        <v>3873.992462327325</v>
+        <v>3873.992463136847</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2520,15 +2534,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>8396183.393723186</v>
@@ -2536,23 +2550,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>8164916.12423617</v>
+        <v>8164916.175736562</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4">
-        <v>7987359.711379359</v>
+        <v>7987359.804575929</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>8396183.393723186</v>
@@ -2560,31 +2574,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6">
-        <v>8215124.530330291</v>
+        <v>8215124.531228948</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7">
-        <v>8019716.265833074</v>
+        <v>8019716.267621561</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>7813480.557047122</v>
+        <v>7813480.558710656</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>8396183.393723186</v>
@@ -2592,23 +2606,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10">
-        <v>8199693.818564756</v>
+        <v>8199693.818553027</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>7998694.769931788</v>
+        <v>7998694.769851127</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>8396183.393723186</v>
@@ -2616,7 +2630,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>8200275.173356865</v>
@@ -2624,7 +2638,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14">
         <v>7999884.775785048</v>
@@ -2645,36 +2659,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660413428529</v>
+        <v>8.112660373650904</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -2683,15 +2697,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520419943862</v>
+        <v>1150.520414302683</v>
       </c>
       <c r="G2">
-        <v>1.733464406499173E-06</v>
+        <v>1.24314898083076E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
@@ -2714,7 +2728,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>

--- a/examples/wangetal2018/out/ResultFiles/DR_1.0_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_1.0_nfc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="201">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -423,9 +423,87 @@
     <t>PI09</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
@@ -435,19 +513,37 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
   </si>
   <si>
     <t>N03</t>
@@ -1153,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.6195339283898808</v>
+        <v>0.6246021379693036</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1164,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.2870530003305398</v>
+        <v>0.2871469604271075</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1186,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03086765359334337</v>
+        <v>0.0308777573989441</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1208,7 +1304,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006378598169213706</v>
+        <v>0.006380686054375176</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1219,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01830611846624958</v>
+        <v>0.01831211054665594</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1241,7 +1337,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1252,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.1542768354939392</v>
+        <v>0.1591290449050458</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1296,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.0114875142110534</v>
+        <v>0.01151285525895052</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1307,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.0922201152606137</v>
+        <v>0.09226919091820954</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1318,7 +1414,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001926081142944471</v>
+        <v>0.001955520738031476</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1384,7 +1480,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1395,7 +1491,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>248.5484</v>
+        <v>248.5484000000001</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1425,7 +1521,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2482.42020244699</v>
+        <v>2560.495583174563</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1436,7 +1532,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>103.4341751019579</v>
+        <v>106.6873159656068</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1458,7 +1554,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>471930519.110092</v>
+        <v>471930519.1100922</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1543,7 +1639,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1588,7 +1684,7 @@
         <v>850</v>
       </c>
       <c r="B47">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1597,13 +1693,13 @@
         <v>94</v>
       </c>
       <c r="E47">
-        <v>308749433.3595871</v>
+        <v>308749433.3595872</v>
       </c>
       <c r="F47">
-        <v>113515972.7858659</v>
+        <v>113515972.785866</v>
       </c>
       <c r="G47">
-        <v>49665112.96463897</v>
+        <v>49665112.96463899</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1645,7 +1741,7 @@
         <v>104</v>
       </c>
       <c r="B53">
-        <v>3.631543639993619</v>
+        <v>3.754727051477327</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1660,7 +1756,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>34.70950290446935</v>
+        <v>35.88686311338693</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1671,7 +1767,7 @@
         <v>105</v>
       </c>
       <c r="B54">
-        <v>4.301601203967352</v>
+        <v>4.419866164609946</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1686,7 +1782,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>41.11376711508718</v>
+        <v>42.24411784245124</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1697,7 +1793,7 @@
         <v>106</v>
       </c>
       <c r="B55">
-        <v>2.888840183693641</v>
+        <v>2.987757475861143</v>
       </c>
       <c r="C55">
         <v>12.5</v>
@@ -1712,7 +1808,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G55">
-        <v>27.61090508240137</v>
+        <v>28.55633500976862</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1725,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1795,16 +1891,16 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F2">
-        <v>45.64481970666205</v>
+        <v>45.65110344457572</v>
       </c>
       <c r="G2">
         <v>850</v>
@@ -1822,25 +1918,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
-        <v>8396183.393723186</v>
+        <v>8240847.220108484</v>
       </c>
       <c r="O2">
-        <v>8164916.175736562</v>
+        <v>8162128.941114301</v>
       </c>
       <c r="P2">
-        <v>12.52641628974997</v>
+        <v>12.35943026120978</v>
       </c>
       <c r="Q2">
-        <v>0.009462113333553224</v>
+        <v>0.009281533343562695</v>
       </c>
       <c r="R2">
-        <v>47.47093464060202</v>
+        <v>47.75758689932012</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1851,16 +1947,16 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F3">
-        <v>45.64479234176426</v>
+        <v>45.65111189987043</v>
       </c>
       <c r="G3">
         <v>850</v>
@@ -1878,25 +1974,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>18.64113</v>
+        <v>9.320565</v>
       </c>
       <c r="N3">
-        <v>8164916.175736562</v>
+        <v>8072700.028673233</v>
       </c>
       <c r="O3">
-        <v>7987359.804575929</v>
+        <v>7982320.730233687</v>
       </c>
       <c r="P3">
-        <v>12.78699895079316</v>
+        <v>12.36543534137211</v>
       </c>
       <c r="Q3">
-        <v>0.009666293422411442</v>
+        <v>0.009291892529693717</v>
       </c>
       <c r="R3">
-        <v>47.96221444700051</v>
+        <v>48.26514539376867</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1907,16 +2003,16 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F4">
-        <v>45.57290538313418</v>
+        <v>45.57721122125441</v>
       </c>
       <c r="G4">
         <v>850</v>
@@ -1934,25 +2030,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L4">
-        <v>31.5</v>
+        <v>15.75</v>
       </c>
       <c r="M4">
-        <v>19.5731865</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N4">
-        <v>8396183.393723186</v>
+        <v>8305057.190163946</v>
       </c>
       <c r="O4">
-        <v>8215124.531228948</v>
+        <v>8212975.319864838</v>
       </c>
       <c r="P4">
-        <v>12.43463099152882</v>
+        <v>12.33993637979682</v>
       </c>
       <c r="Q4">
-        <v>0.009390774087615451</v>
+        <v>0.009265285819109136</v>
       </c>
       <c r="R4">
-        <v>47.33492979999887</v>
+        <v>47.61693876258902</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1963,16 +2059,16 @@
         <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F5">
-        <v>37.46024500948327</v>
+        <v>37.46455180597297</v>
       </c>
       <c r="G5">
         <v>850</v>
@@ -1990,25 +2086,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L5">
-        <v>48.5</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M5">
-        <v>30.1364935</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N5">
-        <v>8215124.531228948</v>
+        <v>8081587.821598727</v>
       </c>
       <c r="O5">
-        <v>8019716.267621561</v>
+        <v>8015127.777340116</v>
       </c>
       <c r="P5">
-        <v>10.45409874791624</v>
+        <v>10.15141340199104</v>
       </c>
       <c r="Q5">
-        <v>0.007901646264778303</v>
+        <v>0.007627295224755354</v>
       </c>
       <c r="R5">
-        <v>47.87146529338666</v>
+        <v>48.17133110433231</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2019,16 +2115,16 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F6">
-        <v>37.46024597739064</v>
+        <v>37.46455184867943</v>
       </c>
       <c r="G6">
         <v>850</v>
@@ -2046,25 +2142,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M6">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N6">
-        <v>8019716.267621561</v>
+        <v>7876418.89030795</v>
       </c>
       <c r="O6">
-        <v>7813480.558710656</v>
+        <v>7806188.033589018</v>
       </c>
       <c r="P6">
-        <v>10.71253269055464</v>
+        <v>10.15964140859754</v>
       </c>
       <c r="Q6">
-        <v>0.008104189270628621</v>
+        <v>0.007639149364910575</v>
       </c>
       <c r="R6">
-        <v>48.45956216351536</v>
+        <v>48.77914461495096</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2075,16 +2171,16 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F7">
-        <v>37.37529605579934</v>
+        <v>37.37724975703574</v>
       </c>
       <c r="G7">
         <v>850</v>
@@ -2102,25 +2198,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M7">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N7">
-        <v>8396183.393723186</v>
+        <v>8264146.279393699</v>
       </c>
       <c r="O7">
-        <v>8199693.818553027</v>
+        <v>8197372.830934173</v>
       </c>
       <c r="P7">
-        <v>10.21587163457643</v>
+        <v>10.12329082375167</v>
       </c>
       <c r="Q7">
-        <v>0.007715648240319732</v>
+        <v>0.007601348678861417</v>
       </c>
       <c r="R7">
-        <v>47.37659472468188</v>
+        <v>47.65996518983339</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2131,16 +2227,16 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F8">
-        <v>37.3752961266936</v>
+        <v>37.37724975901406</v>
       </c>
       <c r="G8">
         <v>850</v>
@@ -2158,25 +2254,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N8">
-        <v>8199693.818553027</v>
+        <v>8062251.410779277</v>
       </c>
       <c r="O8">
-        <v>7998694.769851127</v>
+        <v>7993878.190115792</v>
       </c>
       <c r="P8">
-        <v>10.45608587989121</v>
+        <v>10.13148847530923</v>
       </c>
       <c r="Q8">
-        <v>0.007903861661898454</v>
+        <v>0.007612899726582784</v>
       </c>
       <c r="R8">
-        <v>47.93036057594293</v>
+        <v>48.23203343954872</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2187,16 +2283,16 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F9">
-        <v>37.31823697303841</v>
+        <v>37.31823697271799</v>
       </c>
       <c r="G9">
         <v>850</v>
@@ -2214,25 +2310,25 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N9">
-        <v>8396183.393723186</v>
+        <v>8264548.828707184</v>
       </c>
       <c r="O9">
-        <v>8200275.173356865</v>
+        <v>8197981.319745708</v>
       </c>
       <c r="P9">
-        <v>10.19959870153384</v>
+        <v>10.10730773198131</v>
       </c>
       <c r="Q9">
-        <v>0.007703338877336112</v>
+        <v>0.007589331610698615</v>
       </c>
       <c r="R9">
-        <v>47.37502284459142</v>
+        <v>47.6582849957499</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2243,16 +2339,16 @@
         <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F10">
-        <v>37.31823697116083</v>
+        <v>37.31823697271454</v>
       </c>
       <c r="G10">
         <v>850</v>
@@ -2270,25 +2366,921 @@
         <v>8.396183393723186</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N10">
-        <v>8200275.173356865</v>
+        <v>8063281.66459783</v>
       </c>
       <c r="O10">
-        <v>7999884.775785048</v>
+        <v>7995124.509994124</v>
       </c>
       <c r="P10">
-        <v>10.43866784976796</v>
+        <v>10.11549244166132</v>
       </c>
       <c r="Q10">
-        <v>0.007890654854261608</v>
+        <v>0.007600846392438727</v>
       </c>
       <c r="R10">
-        <v>47.92702033637619</v>
+        <v>48.22846682052858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11">
+        <v>45.65109646691656</v>
+      </c>
+      <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11">
+        <v>12.7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L11">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M11">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N11">
+        <v>8396183.393723186</v>
+      </c>
+      <c r="O11">
+        <v>8318858.161270773</v>
+      </c>
+      <c r="P11">
+        <v>12.35410034345638</v>
+      </c>
+      <c r="Q11">
+        <v>0.009272473381938812</v>
+      </c>
+      <c r="R11">
+        <v>47.32877318281787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12">
+        <v>45.65110026379995</v>
+      </c>
+      <c r="G12">
+        <v>850</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12">
+        <v>12.7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L12">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M12">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N12">
+        <v>8318858.161270773</v>
+      </c>
+      <c r="O12">
+        <v>8240847.220108484</v>
+      </c>
+      <c r="P12">
+        <v>12.35676472667712</v>
+      </c>
+      <c r="Q12">
+        <v>0.009277046111700174</v>
+      </c>
+      <c r="R12">
+        <v>47.54036656826776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13">
+        <v>45.6511075052024</v>
+      </c>
+      <c r="G13">
+        <v>850</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13">
+        <v>12.7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>9.320565</v>
+      </c>
+      <c r="N13">
+        <v>8162128.941114301</v>
+      </c>
+      <c r="O13">
+        <v>8072700.028673233</v>
+      </c>
+      <c r="P13">
+        <v>12.36243155702194</v>
+      </c>
+      <c r="Q13">
+        <v>0.009286666010682499</v>
+      </c>
+      <c r="R13">
+        <v>48.00801281972512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14">
+        <v>45.57721119076758</v>
+      </c>
+      <c r="G14">
+        <v>850</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14">
+        <v>12.7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L14">
+        <v>15.75</v>
+      </c>
+      <c r="M14">
+        <v>9.786593249999999</v>
+      </c>
+      <c r="N14">
+        <v>8396183.393723186</v>
+      </c>
+      <c r="O14">
+        <v>8305057.190163946</v>
+      </c>
+      <c r="P14">
+        <v>12.33679598298763</v>
+      </c>
+      <c r="Q14">
+        <v>0.009259948457201041</v>
+      </c>
+      <c r="R14">
+        <v>47.36594036502419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15">
+        <v>37.46455179754318</v>
+      </c>
+      <c r="G15">
+        <v>850</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15">
+        <v>12.7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L15">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M15">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N15">
+        <v>8212975.319864838</v>
+      </c>
+      <c r="O15">
+        <v>8147533.075658589</v>
+      </c>
+      <c r="P15">
+        <v>10.14610348908757</v>
+      </c>
+      <c r="Q15">
+        <v>0.007619778726504892</v>
+      </c>
+      <c r="R15">
+        <v>47.79819187308985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16">
+        <v>37.46455180181732</v>
+      </c>
+      <c r="G16">
+        <v>850</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16">
+        <v>12.7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L16">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N16">
+        <v>8147533.075658589</v>
+      </c>
+      <c r="O16">
+        <v>8081587.821598727</v>
+      </c>
+      <c r="P16">
+        <v>10.14875738362559</v>
+      </c>
+      <c r="Q16">
+        <v>0.007623515625169993</v>
+      </c>
+      <c r="R16">
+        <v>47.98294805939805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17">
+        <v>37.46455181006794</v>
+      </c>
+      <c r="G17">
+        <v>850</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17">
+        <v>12.7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>8015127.777340116</v>
+      </c>
+      <c r="O17">
+        <v>7946060.390703255</v>
+      </c>
+      <c r="P17">
+        <v>10.1541537913572</v>
+      </c>
+      <c r="Q17">
+        <v>0.007631238161430424</v>
+      </c>
+      <c r="R17">
+        <v>48.36947504613087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18">
+        <v>37.46455181407394</v>
+      </c>
+      <c r="G18">
+        <v>850</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18">
+        <v>12.7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>7946060.390703255</v>
+      </c>
+      <c r="O18">
+        <v>7876418.89030795</v>
+      </c>
+      <c r="P18">
+        <v>10.15689644450529</v>
+      </c>
+      <c r="Q18">
+        <v>0.007635230136634018</v>
+      </c>
+      <c r="R18">
+        <v>48.57176237747642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19">
+        <v>37.37724975791765</v>
+      </c>
+      <c r="G19">
+        <v>850</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19">
+        <v>12.7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>8396183.393723186</v>
+      </c>
+      <c r="O19">
+        <v>8330412.226499261</v>
+      </c>
+      <c r="P19">
+        <v>10.11783697464119</v>
+      </c>
+      <c r="Q19">
+        <v>0.007593710182935154</v>
+      </c>
+      <c r="R19">
+        <v>47.29772430290913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20">
+        <v>37.37724975729294</v>
+      </c>
+      <c r="G20">
+        <v>850</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>12.7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>8330412.226499261</v>
+      </c>
+      <c r="O20">
+        <v>8264146.279393699</v>
+      </c>
+      <c r="P20">
+        <v>10.12056277594096</v>
+      </c>
+      <c r="Q20">
+        <v>0.007597584679995806</v>
+      </c>
+      <c r="R20">
+        <v>47.47663997551391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21">
+        <v>37.37724975672673</v>
+      </c>
+      <c r="G21">
+        <v>850</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21">
+        <v>12.7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>8197372.830934173</v>
+      </c>
+      <c r="O21">
+        <v>8130078.666539562</v>
+      </c>
+      <c r="P21">
+        <v>10.12602112081654</v>
+      </c>
+      <c r="Q21">
+        <v>0.007605154761969168</v>
+      </c>
+      <c r="R21">
+        <v>47.84688542606348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22">
+        <v>37.37724975640423</v>
+      </c>
+      <c r="G22">
+        <v>850</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22">
+        <v>12.7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>8130078.666539562</v>
+      </c>
+      <c r="O22">
+        <v>8062251.410779277</v>
+      </c>
+      <c r="P22">
+        <v>10.12875367029371</v>
+      </c>
+      <c r="Q22">
+        <v>0.007609004542686048</v>
+      </c>
+      <c r="R22">
+        <v>48.03752960642302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23">
+        <v>37.31823697277085</v>
+      </c>
+      <c r="G23">
+        <v>850</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23">
+        <v>12.7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8396183.393723186</v>
+      </c>
+      <c r="O23">
+        <v>8330611.989392485</v>
+      </c>
+      <c r="P23">
+        <v>10.10186249292225</v>
+      </c>
+      <c r="Q23">
+        <v>0.007581715437268584</v>
+      </c>
+      <c r="R23">
+        <v>47.29718802355656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24">
+        <v>37.31823697271903</v>
+      </c>
+      <c r="G24">
+        <v>850</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24">
+        <v>12.7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8330611.989392485</v>
+      </c>
+      <c r="O24">
+        <v>8264548.828707184</v>
+      </c>
+      <c r="P24">
+        <v>10.10458399109198</v>
+      </c>
+      <c r="Q24">
+        <v>0.007585579033404444</v>
+      </c>
+      <c r="R24">
+        <v>47.47554119082935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25">
+        <v>37.31823697271706</v>
+      </c>
+      <c r="G25">
+        <v>850</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25">
+        <v>12.7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>8197981.319745708</v>
+      </c>
+      <c r="O25">
+        <v>8130896.351150339</v>
+      </c>
+      <c r="P25">
+        <v>10.11003371863071</v>
+      </c>
+      <c r="Q25">
+        <v>0.007593125950882456</v>
+      </c>
+      <c r="R25">
+        <v>47.84460096165488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26">
+        <v>37.31823697271579</v>
+      </c>
+      <c r="G26">
+        <v>850</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26">
+        <v>12.7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26">
+        <v>8.396183393723186</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>8130896.351150339</v>
+      </c>
+      <c r="O26">
+        <v>8063281.66459783</v>
+      </c>
+      <c r="P26">
+        <v>10.1127619541516</v>
+      </c>
+      <c r="Q26">
+        <v>0.007596963649360008</v>
+      </c>
+      <c r="R26">
+        <v>48.03461677478241</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +3298,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2321,43 +3313,43 @@
         <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2365,13 +3357,13 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2380,16 +3372,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.051183820329847</v>
+        <v>1.051847410981867</v>
       </c>
       <c r="I2">
-        <v>34.70950290446935</v>
+        <v>35.88686311338693</v>
       </c>
       <c r="J2">
-        <v>3.631543639993619</v>
+        <v>3.754727051477327</v>
       </c>
       <c r="K2">
-        <v>4869.972652104243</v>
+        <v>5035.164070572126</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2418,13 +3410,13 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2433,16 +3425,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.074576602659223</v>
+        <v>1.075580469954797</v>
       </c>
       <c r="I3">
-        <v>41.11376711508718</v>
+        <v>42.24411784245124</v>
       </c>
       <c r="J3">
-        <v>4.301601203967352</v>
+        <v>4.419866164609946</v>
       </c>
       <c r="K3">
-        <v>5768.533246544299</v>
+        <v>5927.12892406523</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2471,31 +3463,31 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.049694185777695</v>
+        <v>1.050326661732829</v>
       </c>
       <c r="I4">
-        <v>27.61090508240137</v>
+        <v>28.55633500976862</v>
       </c>
       <c r="J4">
-        <v>2.888840183693641</v>
+        <v>2.987757475861143</v>
       </c>
       <c r="K4">
-        <v>3873.992463136847</v>
+        <v>4006.64253027931</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2526,7 +3518,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2534,15 +3526,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>8396183.393723186</v>
@@ -2550,23 +3542,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B3">
-        <v>8164916.175736562</v>
+        <v>8162128.941114301</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B4">
-        <v>7987359.804575929</v>
+        <v>7982320.730233687</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>8396183.393723186</v>
@@ -2574,31 +3566,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B6">
-        <v>8215124.531228948</v>
+        <v>8212975.319864838</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B7">
-        <v>8019716.267621561</v>
+        <v>8015127.777340116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B8">
-        <v>7813480.558710656</v>
+        <v>7806188.033589018</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>8396183.393723186</v>
@@ -2606,23 +3598,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B10">
-        <v>8199693.818553027</v>
+        <v>8197372.830934173</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B11">
-        <v>7998694.769851127</v>
+        <v>7993878.190115792</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B12">
         <v>8396183.393723186</v>
@@ -2630,18 +3622,146 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B13">
-        <v>8200275.173356865</v>
+        <v>8197981.319745708</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B14">
-        <v>7999884.775785048</v>
+        <v>7995124.509994124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>8318858.161270773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16">
+        <v>8240847.220108484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>8072700.028673233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>8305057.190163946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19">
+        <v>8147533.075658589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20">
+        <v>8081587.821598727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21">
+        <v>7946060.390703255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <v>7876418.89030795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23">
+        <v>8330412.226499261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
+        <v>8264146.279393699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25">
+        <v>8130078.666539562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26">
+        <v>8062251.410779277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <v>8330611.989392485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <v>8264548.828707184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29">
+        <v>8130896.351150339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>8063281.66459783</v>
       </c>
     </row>
   </sheetData>
@@ -2659,36 +3779,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660373650904</v>
+        <v>8.112659423711229</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -2697,21 +3817,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520414302683</v>
+        <v>1150.520279584238</v>
       </c>
       <c r="G2">
-        <v>1.24314898083076E-06</v>
+        <v>-1.046619965971949E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642628575</v>
+        <v>21.09291642716393</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -2720,21 +3840,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999866923</v>
+        <v>2991.352999991465</v>
       </c>
       <c r="G3">
-        <v>-4.448716498566966E-09</v>
+        <v>-2.853231317088223E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054487508</v>
+        <v>16.22532054555061</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -2743,10 +3863,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799897633</v>
+        <v>2301.040799993435</v>
       </c>
       <c r="G4">
-        <v>-4.448719807711253E-09</v>
+        <v>-2.853062847336649E-10</v>
       </c>
     </row>
   </sheetData>
